--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/2. 표시 형식/4분기 주요 이벤트.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/2. 표시 형식/4분기 주요 이벤트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbut\Desktop\예제\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\2. 표시 형식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8BC66B-9FE0-4B19-951A-E034DEA8C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27BB73D-542A-4300-9D63-0974AFBEF60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24132" yWindow="3252" windowWidth="21180" windowHeight="16692" xr2:uid="{AC638D4C-8E8A-44A3-8E03-77D6D2CF0F41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{AC638D4C-8E8A-44A3-8E03-77D6D2CF0F41}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,10 @@
   <definedNames>
     <definedName name="anscount" hidden="1">1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -213,7 +202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,9 +219,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,27 +570,27 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.19921875" customWidth="1"/>
-    <col min="5" max="6" width="8.796875" style="2"/>
-    <col min="7" max="7" width="10.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="6" width="8.75" style="2"/>
+    <col min="7" max="7" width="10.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -615,43 +601,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>47757</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="G5" s="8"/>
+        <v>45566</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6">
+        <v>45571</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
